--- a/biology/Microbiologie/Chlamydiaceae/Chlamydiaceae.xlsx
+++ b/biology/Microbiologie/Chlamydiaceae/Chlamydiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlamydiaceae sont une famille de bactéries à Gram négatif à développement intracellulaire obligatoire de l'ordre des Chlamydiales. Son nom provient de Chlamydia qui est le genre type de cette famille.
 </t>
@@ -511,7 +523,9 @@
           <t>Cycle de développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cycle d'attachement et entrée du CE dans la cellule hôte
 Différenciation de CE en CR
@@ -551,10 +565,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genres validement publiés
-Selon LPSN  (30 novembre 2022)[2] cette famille ne comporte qu'un seul genre validement publié, Chlamydia Jones et al. 1945.
-Genres en attente de publication valide
-Selon LPSN  (30 novembre 2022)[2] les genres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
+          <t>Genres validement publiés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (30 novembre 2022) cette famille ne comporte qu'un seul genre validement publié, Chlamydia Jones et al. 1945.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chlamydiaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlamydiaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique et taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (30 novembre 2022) les genres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
 « Ca. Medusoplasma » Viver et al. 2017
 « Ca. Clavichlamydia » Karlsen et al. 2008
 « Chlamydiifrater » Vorimore et al. 2021
